--- a/Tarif/Tarif_newsletter/grossiste_consommables.xlsx
+++ b/Tarif/Tarif_newsletter/grossiste_consommables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Newsletter\website\multi_login\login\src\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ServeurExternes\Newsletter\Tarif\Tarif_newsletter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2C229EA-F507-494E-9107-5A4394F78CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB20BBF-9843-4363-BFDA-A9A9052E620F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3765" windowWidth="18210" windowHeight="14790" xr2:uid="{A83468ED-792A-4EAE-A54C-0B04583C476E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A83468ED-792A-4EAE-A54C-0B04583C476E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>grossiste_consommables</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -403,15 +411,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308AFC9C-B5A0-43E6-806E-7B18150B63FF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="1048c28c-9381-4dd3-ae6f-17399ade7773" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9b296748-61ab-4e0f-b713-76f44312e5f3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9975257FF50147B4F0FF0C87D5C631" ma:contentTypeVersion="17" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="5a2d584d4fb9828e9a7f0598a06f6637">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="9b296748-61ab-4e0f-b713-76f44312e5f3" xmlns:ns3="1048c28c-9381-4dd3-ae6f-17399ade7773" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d5e6af42b454af4656629d88cc9941a" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -663,36 +702,48 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="1048c28c-9381-4dd3-ae6f-17399ade7773" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9b296748-61ab-4e0f-b713-76f44312e5f3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BAF7056-48E2-43A2-93B3-E22E54D12FE0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2318AEA8-BA14-4013-97B8-D71E4FF3B307}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{728230DB-ABB4-4146-8B2F-F09B3087F14A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{728230DB-ABB4-4146-8B2F-F09B3087F14A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="9b296748-61ab-4e0f-b713-76f44312e5f3"/>
+    <ds:schemaRef ds:uri="1048c28c-9381-4dd3-ae6f-17399ade7773"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2318AEA8-BA14-4013-97B8-D71E4FF3B307}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BAF7056-48E2-43A2-93B3-E22E54D12FE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="9b296748-61ab-4e0f-b713-76f44312e5f3"/>
+    <ds:schemaRef ds:uri="1048c28c-9381-4dd3-ae6f-17399ade7773"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>